--- a/results/mp/deberta/corona/confidence/126/stop-words-desired-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-desired-0.35/avg_0.003_scores.xlsx
@@ -121,12 +121,12 @@
     <t>healthy</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
@@ -139,16 +139,16 @@
     <t>hand</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>credit</t>
   </si>
   <si>
     <t>save</t>
@@ -1412,13 +1412,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.7324561403508771</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L24">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="M24">
-        <v>178</v>
+        <v>68</v>
       </c>
       <c r="N24">
         <v>0.9399999999999999</v>
@@ -1430,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1438,25 +1438,25 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.7111111111111111</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L25">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="M25">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1568,25 +1568,25 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.6319018404907976</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L30">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="M30">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="N30">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O30">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1594,25 +1594,25 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.631578947368421</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L31">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="N31">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="O31">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>105</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1620,25 +1620,25 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.6222222222222222</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N32">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="O32">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1646,25 +1646,25 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.6129032258064516</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="N33">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="10:17">
